--- a/SonarLysaFX/src/resources/MEP_mars_2018.xlsx
+++ b/SonarLysaFX/src/resources/MEP_mars_2018.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12330" windowWidth="28515" xWindow="120" yWindow="90"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
-    <sheet name="Feuil2" r:id="rId2" sheetId="2"/>
-    <sheet name="Feuil3" r:id="rId3" sheetId="3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -994,7 +992,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,7 +1001,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,23 +1009,8 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
       </patternFill>
     </fill>
     <fill>
@@ -1047,787 +1029,493 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="772">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+  <cellXfs count="478">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1841,10 +1529,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2002,7 +1690,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2011,13 +1699,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2027,7 +1715,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2036,7 +1724,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2045,7 +1733,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2055,12 +1743,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2091,7 +1779,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2110,7 +1798,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2122,20 +1810,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2259,212 +1947,212 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="296">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="297">
+      <c r="B4" s="3">
         <v>276716</v>
       </c>
-      <c r="C4" s="298" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="299" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="301" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="302">
+      <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="303">
-        <v>0</v>
-      </c>
-      <c r="I4" s="304">
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>42997</v>
       </c>
-      <c r="J4" s="305">
+      <c r="J4" s="11">
         <v>42997</v>
       </c>
-      <c r="K4" s="306"/>
-      <c r="L4" s="307">
+      <c r="K4" s="12"/>
+      <c r="L4" s="13">
         <v>43075</v>
       </c>
-      <c r="M4" s="308">
+      <c r="M4" s="14">
         <v>43087</v>
       </c>
-      <c r="N4" s="309">
+      <c r="N4" s="15">
         <v>43171</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="310">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="311">
+      <c r="B5" s="17">
         <v>277994</v>
       </c>
-      <c r="C5" t="s" s="312">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="313">
+      <c r="D5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="314">
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="315">
+      <c r="F5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="316">
+      <c r="G5" s="22">
         <v>2</v>
       </c>
-      <c r="H5" s="317">
-        <v>0</v>
-      </c>
-      <c r="I5" s="318">
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
         <v>42996</v>
       </c>
-      <c r="J5" s="319">
+      <c r="J5" s="25">
         <v>42996</v>
       </c>
-      <c r="K5" s="320"/>
-      <c r="L5" s="321">
+      <c r="K5" s="26"/>
+      <c r="L5" s="27">
         <v>43137</v>
       </c>
-      <c r="M5" s="322">
+      <c r="M5" s="28">
         <v>43145</v>
       </c>
-      <c r="N5" s="323">
+      <c r="N5" s="29">
         <v>43173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="324">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="325">
+      <c r="B6" s="31">
         <v>278515</v>
       </c>
-      <c r="C6" s="326" t="s">
+      <c r="C6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="327" t="s">
+      <c r="D6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="328" t="s">
+      <c r="E6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="329" t="s">
+      <c r="F6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="330">
+      <c r="G6" s="36">
         <v>9</v>
       </c>
-      <c r="H6" s="331">
+      <c r="H6" s="37">
         <v>2</v>
       </c>
-      <c r="I6" s="332">
+      <c r="I6" s="38">
         <v>42998</v>
       </c>
-      <c r="J6" s="333">
+      <c r="J6" s="39">
         <v>43052</v>
       </c>
-      <c r="K6" s="334"/>
-      <c r="L6" s="335">
+      <c r="K6" s="40"/>
+      <c r="L6" s="41">
         <v>42998</v>
       </c>
-      <c r="M6" s="336">
+      <c r="M6" s="42">
         <v>43033</v>
       </c>
-      <c r="N6" s="337">
+      <c r="N6" s="43">
         <v>43173</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="338">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="339">
+      <c r="B7" s="45">
         <v>279370</v>
       </c>
-      <c r="C7" s="340" t="s">
+      <c r="C7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="341" t="s">
+      <c r="D7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="342" t="s">
+      <c r="E7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="343" t="s">
+      <c r="F7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="344">
+      <c r="G7" s="50">
         <v>6</v>
       </c>
-      <c r="H7" s="345">
-        <v>0</v>
-      </c>
-      <c r="I7" s="346">
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
         <v>43061</v>
       </c>
-      <c r="J7" s="347">
+      <c r="J7" s="53">
         <v>43061</v>
       </c>
-      <c r="K7" s="348"/>
-      <c r="L7" s="349">
+      <c r="K7" s="54"/>
+      <c r="L7" s="55">
         <v>43075</v>
       </c>
-      <c r="M7" s="350">
+      <c r="M7" s="56">
         <v>43087</v>
       </c>
-      <c r="N7" s="351">
+      <c r="N7" s="57">
         <v>43171</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="352">
+      <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="353">
+      <c r="B8" s="59">
         <v>282422</v>
       </c>
-      <c r="C8" t="s" s="354">
+      <c r="C8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s" s="355">
+      <c r="D8" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s" s="356">
+      <c r="E8" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s" s="357">
+      <c r="F8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="358">
-        <v>1</v>
-      </c>
-      <c r="H8" s="359">
-        <v>0</v>
-      </c>
-      <c r="I8" s="360">
+      <c r="G8" s="64">
+        <v>1</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0</v>
+      </c>
+      <c r="I8" s="66">
         <v>43017</v>
       </c>
-      <c r="J8" s="361">
+      <c r="J8" s="67">
         <v>43017</v>
       </c>
-      <c r="K8" s="362"/>
-      <c r="L8" s="363">
+      <c r="K8" s="68"/>
+      <c r="L8" s="69">
         <v>43046</v>
       </c>
-      <c r="M8" s="364">
+      <c r="M8" s="70">
         <v>43074</v>
       </c>
-      <c r="N8" s="365">
+      <c r="N8" s="71">
         <v>43160</v>
       </c>
     </row>
@@ -2621,128 +2309,128 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="366">
+      <c r="A13" s="72">
         <v>11</v>
       </c>
-      <c r="B13" s="367">
+      <c r="B13" s="73">
         <v>291505</v>
       </c>
-      <c r="C13" s="368" t="s">
+      <c r="C13" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="369" t="s">
+      <c r="D13" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="370" t="s">
+      <c r="E13" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="371" t="s">
+      <c r="F13" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="372">
+      <c r="G13" s="78">
         <v>16</v>
       </c>
-      <c r="H13" s="373">
-        <v>0</v>
-      </c>
-      <c r="I13" s="374">
+      <c r="H13" s="79">
+        <v>0</v>
+      </c>
+      <c r="I13" s="80">
         <v>43062</v>
       </c>
-      <c r="J13" s="375">
+      <c r="J13" s="81">
         <v>43117</v>
       </c>
-      <c r="K13" s="376"/>
-      <c r="L13" s="377">
+      <c r="K13" s="82"/>
+      <c r="L13" s="83">
         <v>43133</v>
       </c>
-      <c r="M13" s="378">
+      <c r="M13" s="84">
         <v>43133</v>
       </c>
-      <c r="N13" s="379">
+      <c r="N13" s="85">
         <v>43168</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="380">
+      <c r="A14" s="86">
         <v>12</v>
       </c>
-      <c r="B14" s="381">
+      <c r="B14" s="87">
         <v>292978</v>
       </c>
-      <c r="C14" s="382" t="s">
+      <c r="C14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="383" t="s">
+      <c r="D14" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="384" t="s">
+      <c r="E14" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="385" t="s">
+      <c r="F14" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="386">
+      <c r="G14" s="92">
         <v>10</v>
       </c>
-      <c r="H14" s="387">
-        <v>0</v>
-      </c>
-      <c r="I14" s="388">
+      <c r="H14" s="93">
+        <v>0</v>
+      </c>
+      <c r="I14" s="94">
         <v>43069</v>
       </c>
-      <c r="J14" s="389">
+      <c r="J14" s="95">
         <v>43069</v>
       </c>
-      <c r="K14" s="390"/>
-      <c r="L14" s="391">
+      <c r="K14" s="96"/>
+      <c r="L14" s="97">
         <v>43084</v>
       </c>
-      <c r="M14" s="392">
+      <c r="M14" s="98">
         <v>43084</v>
       </c>
-      <c r="N14" s="393">
+      <c r="N14" s="99">
         <v>43168</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="394">
+      <c r="A15" s="100">
         <v>13</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="101">
         <v>294256</v>
       </c>
-      <c r="C15" s="396" t="s">
+      <c r="C15" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="397" t="s">
+      <c r="D15" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="398" t="s">
+      <c r="E15" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="399" t="s">
+      <c r="F15" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="400">
+      <c r="G15" s="106">
         <v>11</v>
       </c>
-      <c r="H15" s="401">
+      <c r="H15" s="107">
         <v>2</v>
       </c>
-      <c r="I15" s="402">
+      <c r="I15" s="108">
         <v>43122</v>
       </c>
-      <c r="J15" s="403">
+      <c r="J15" s="109">
         <v>43122</v>
       </c>
-      <c r="K15" s="404"/>
-      <c r="L15" s="405">
+      <c r="K15" s="110"/>
+      <c r="L15" s="111">
         <v>43145</v>
       </c>
-      <c r="M15" s="406">
+      <c r="M15" s="112">
         <v>43159</v>
       </c>
-      <c r="N15" s="407">
+      <c r="N15" s="113">
         <v>43161</v>
       </c>
     </row>
@@ -2785,84 +2473,84 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="408">
+      <c r="A17" s="114">
         <v>15</v>
       </c>
-      <c r="B17" s="409">
+      <c r="B17" s="115">
         <v>295514</v>
       </c>
-      <c r="C17" s="410" t="s">
+      <c r="C17" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="411" t="s">
+      <c r="D17" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="412" t="s">
+      <c r="E17" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="413" t="s">
+      <c r="F17" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="414">
+      <c r="G17" s="120">
         <v>83</v>
       </c>
-      <c r="H17" s="415">
+      <c r="H17" s="121">
         <v>2</v>
       </c>
-      <c r="I17" s="416">
+      <c r="I17" s="122">
         <v>43112</v>
       </c>
-      <c r="J17" s="417">
+      <c r="J17" s="123">
         <v>43147</v>
       </c>
-      <c r="K17" s="418"/>
-      <c r="L17" s="419">
+      <c r="K17" s="124"/>
+      <c r="L17" s="125">
         <v>43124</v>
       </c>
-      <c r="M17" s="420"/>
-      <c r="N17" s="421">
+      <c r="M17" s="126"/>
+      <c r="N17" s="127">
         <v>43160</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="422">
+      <c r="A18" s="128">
         <v>16</v>
       </c>
-      <c r="B18" s="423">
+      <c r="B18" s="129">
         <v>296266</v>
       </c>
-      <c r="C18" s="424" t="s">
+      <c r="C18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="425" t="s">
+      <c r="D18" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="426" t="s">
+      <c r="E18" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="427" t="s">
+      <c r="F18" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="428">
+      <c r="G18" s="134">
         <v>34</v>
       </c>
-      <c r="H18" s="429">
-        <v>0</v>
-      </c>
-      <c r="I18" s="430">
+      <c r="H18" s="135">
+        <v>0</v>
+      </c>
+      <c r="I18" s="136">
         <v>43091</v>
       </c>
-      <c r="J18" s="431">
+      <c r="J18" s="137">
         <v>43091</v>
       </c>
-      <c r="K18" s="432"/>
-      <c r="L18" s="433">
+      <c r="K18" s="138"/>
+      <c r="L18" s="139">
         <v>43111</v>
       </c>
-      <c r="M18" s="434">
+      <c r="M18" s="140">
         <v>43131</v>
       </c>
-      <c r="N18" s="435">
+      <c r="N18" s="141">
         <v>43167</v>
       </c>
     </row>
@@ -2931,44 +2619,44 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="436">
+      <c r="A21" s="142">
         <v>19</v>
       </c>
-      <c r="B21" s="437">
+      <c r="B21" s="143">
         <v>299490</v>
       </c>
-      <c r="C21" s="438" t="s">
+      <c r="C21" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="439" t="s">
+      <c r="D21" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="440" t="s">
+      <c r="E21" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="441" t="s">
+      <c r="F21" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="442">
+      <c r="G21" s="148">
         <v>7</v>
       </c>
-      <c r="H21" s="443">
-        <v>0</v>
-      </c>
-      <c r="I21" s="444">
+      <c r="H21" s="149">
+        <v>0</v>
+      </c>
+      <c r="I21" s="150">
         <v>43109</v>
       </c>
-      <c r="J21" s="445">
+      <c r="J21" s="151">
         <v>43109</v>
       </c>
-      <c r="K21" s="446"/>
-      <c r="L21" s="447">
+      <c r="K21" s="152"/>
+      <c r="L21" s="153">
         <v>43146</v>
       </c>
-      <c r="M21" s="448">
+      <c r="M21" s="154">
         <v>43173</v>
       </c>
-      <c r="N21" s="449">
+      <c r="N21" s="155">
         <v>43175</v>
       </c>
     </row>
@@ -3011,44 +2699,44 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="450">
+      <c r="A23" s="156">
         <v>21</v>
       </c>
-      <c r="B23" s="451">
+      <c r="B23" s="157">
         <v>299620</v>
       </c>
-      <c r="C23" t="s" s="452">
+      <c r="C23" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s" s="453">
+      <c r="D23" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s" s="454">
+      <c r="E23" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="455">
+      <c r="F23" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="456">
+      <c r="G23" s="162">
         <v>2</v>
       </c>
-      <c r="H23" s="457">
-        <v>0</v>
-      </c>
-      <c r="I23" s="458">
+      <c r="H23" s="163">
+        <v>0</v>
+      </c>
+      <c r="I23" s="164">
         <v>43110</v>
       </c>
-      <c r="J23" s="459">
+      <c r="J23" s="165">
         <v>43110</v>
       </c>
-      <c r="K23" s="460"/>
-      <c r="L23" s="461">
+      <c r="K23" s="166"/>
+      <c r="L23" s="167">
         <v>43133</v>
       </c>
-      <c r="M23" s="462">
+      <c r="M23" s="168">
         <v>43133</v>
       </c>
-      <c r="N23" s="463">
+      <c r="N23" s="169">
         <v>43171</v>
       </c>
     </row>
@@ -3085,44 +2773,44 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="464">
+      <c r="A25" s="170">
         <v>23</v>
       </c>
-      <c r="B25" s="465">
+      <c r="B25" s="171">
         <v>301109</v>
       </c>
-      <c r="C25" s="466" t="s">
+      <c r="C25" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="467" t="s">
+      <c r="D25" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="468" t="s">
+      <c r="E25" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="469" t="s">
+      <c r="F25" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="470">
+      <c r="G25" s="176">
         <v>31</v>
       </c>
-      <c r="H25" s="471">
-        <v>0</v>
-      </c>
-      <c r="I25" s="472">
+      <c r="H25" s="177">
+        <v>0</v>
+      </c>
+      <c r="I25" s="178">
         <v>43117</v>
       </c>
-      <c r="J25" s="473">
+      <c r="J25" s="179">
         <v>43117</v>
       </c>
-      <c r="K25" s="474"/>
-      <c r="L25" s="475">
+      <c r="K25" s="180"/>
+      <c r="L25" s="181">
         <v>43117</v>
       </c>
-      <c r="M25" s="476">
+      <c r="M25" s="182">
         <v>43131</v>
       </c>
-      <c r="N25" s="477">
+      <c r="N25" s="183">
         <v>43165</v>
       </c>
     </row>
@@ -3165,44 +2853,44 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="478">
+      <c r="A27" s="184">
         <v>25</v>
       </c>
-      <c r="B27" s="479">
+      <c r="B27" s="185">
         <v>302661</v>
       </c>
-      <c r="C27" s="480" t="s">
+      <c r="C27" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="481" t="s">
+      <c r="D27" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="482" t="s">
+      <c r="E27" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="483" t="s">
+      <c r="F27" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="484">
+      <c r="G27" s="190">
         <v>2</v>
       </c>
-      <c r="H27" s="485">
-        <v>0</v>
-      </c>
-      <c r="I27" s="486">
+      <c r="H27" s="191">
+        <v>0</v>
+      </c>
+      <c r="I27" s="192">
         <v>43124</v>
       </c>
-      <c r="J27" s="487">
+      <c r="J27" s="193">
         <v>43124</v>
       </c>
-      <c r="K27" s="488"/>
-      <c r="L27" s="489">
+      <c r="K27" s="194"/>
+      <c r="L27" s="195">
         <v>43124</v>
       </c>
-      <c r="M27" s="490">
+      <c r="M27" s="196">
         <v>43124</v>
       </c>
-      <c r="N27" s="491">
+      <c r="N27" s="197">
         <v>43172</v>
       </c>
     </row>
@@ -3283,86 +2971,86 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="492">
+      <c r="A30" s="198">
         <v>28</v>
       </c>
-      <c r="B30" s="493">
+      <c r="B30" s="199">
         <v>305389</v>
       </c>
-      <c r="C30" s="494" t="s">
+      <c r="C30" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="495" t="s">
+      <c r="D30" s="201" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="496" t="s">
+      <c r="E30" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="497" t="s">
+      <c r="F30" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="498">
+      <c r="G30" s="204">
         <v>8</v>
       </c>
-      <c r="H30" s="499">
-        <v>0</v>
-      </c>
-      <c r="I30" s="500">
+      <c r="H30" s="205">
+        <v>0</v>
+      </c>
+      <c r="I30" s="206">
         <v>43136</v>
       </c>
-      <c r="J30" s="501">
+      <c r="J30" s="207">
         <v>43136</v>
       </c>
-      <c r="K30" s="502"/>
-      <c r="L30" s="503">
+      <c r="K30" s="208"/>
+      <c r="L30" s="209">
         <v>43139</v>
       </c>
-      <c r="M30" s="504">
+      <c r="M30" s="210">
         <v>43139</v>
       </c>
-      <c r="N30" s="505">
+      <c r="N30" s="211">
         <v>43179</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="506">
+      <c r="A31" s="212">
         <v>29</v>
       </c>
-      <c r="B31" s="507">
+      <c r="B31" s="213">
         <v>305982</v>
       </c>
-      <c r="C31" s="508" t="s">
+      <c r="C31" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="509" t="s">
+      <c r="D31" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="510" t="s">
+      <c r="E31" s="216" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="511" t="s">
+      <c r="F31" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="512">
-        <v>1</v>
-      </c>
-      <c r="H31" s="513">
-        <v>0</v>
-      </c>
-      <c r="I31" s="514">
+      <c r="G31" s="218">
+        <v>1</v>
+      </c>
+      <c r="H31" s="219">
+        <v>0</v>
+      </c>
+      <c r="I31" s="220">
         <v>43138</v>
       </c>
-      <c r="J31" s="515">
+      <c r="J31" s="221">
         <v>43138</v>
       </c>
-      <c r="K31" s="516"/>
-      <c r="L31" s="517">
+      <c r="K31" s="222"/>
+      <c r="L31" s="223">
         <v>43158</v>
       </c>
-      <c r="M31" s="518">
+      <c r="M31" s="224">
         <v>43159</v>
       </c>
-      <c r="N31" s="519">
+      <c r="N31" s="225">
         <v>43168</v>
       </c>
     </row>
@@ -3402,44 +3090,44 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="520">
+      <c r="A33" s="226">
         <v>31</v>
       </c>
-      <c r="B33" s="521">
+      <c r="B33" s="227">
         <v>306150</v>
       </c>
-      <c r="C33" s="522" t="s">
+      <c r="C33" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="523" t="s">
+      <c r="D33" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="524" t="s">
+      <c r="E33" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="525" t="s">
+      <c r="F33" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="526">
-        <v>1</v>
-      </c>
-      <c r="H33" s="527">
-        <v>0</v>
-      </c>
-      <c r="I33" s="528">
+      <c r="G33" s="232">
+        <v>1</v>
+      </c>
+      <c r="H33" s="233">
+        <v>0</v>
+      </c>
+      <c r="I33" s="234">
         <v>43138</v>
       </c>
-      <c r="J33" s="529">
+      <c r="J33" s="235">
         <v>43138</v>
       </c>
-      <c r="K33" s="530"/>
-      <c r="L33" s="531">
+      <c r="K33" s="236"/>
+      <c r="L33" s="237">
         <v>43146</v>
       </c>
-      <c r="M33" s="532">
+      <c r="M33" s="238">
         <v>43147</v>
       </c>
-      <c r="N33" s="533">
+      <c r="N33" s="239">
         <v>43171</v>
       </c>
     </row>
@@ -3739,44 +3427,44 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="534">
+      <c r="A42" s="240">
         <v>40</v>
       </c>
-      <c r="B42" s="535">
+      <c r="B42" s="241">
         <v>309205</v>
       </c>
-      <c r="C42" s="536" t="s">
+      <c r="C42" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="537" t="s">
+      <c r="D42" s="243" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="538" t="s">
+      <c r="E42" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="539" t="s">
+      <c r="F42" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="540">
+      <c r="G42" s="246">
         <v>3</v>
       </c>
-      <c r="H42" s="541">
-        <v>0</v>
-      </c>
-      <c r="I42" s="542">
+      <c r="H42" s="247">
+        <v>0</v>
+      </c>
+      <c r="I42" s="248">
         <v>43151</v>
       </c>
-      <c r="J42" s="543">
+      <c r="J42" s="249">
         <v>43151</v>
       </c>
-      <c r="K42" s="544"/>
-      <c r="L42" s="545">
+      <c r="K42" s="250"/>
+      <c r="L42" s="251">
         <v>43154</v>
       </c>
-      <c r="M42" s="546">
+      <c r="M42" s="252">
         <v>43154</v>
       </c>
-      <c r="N42" s="547">
+      <c r="N42" s="253">
         <v>43172</v>
       </c>
     </row>
@@ -4003,44 +3691,44 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="548">
+      <c r="A49" s="254">
         <v>47</v>
       </c>
-      <c r="B49" s="549">
+      <c r="B49" s="255">
         <v>310071</v>
       </c>
-      <c r="C49" t="s" s="550">
+      <c r="C49" s="256" t="s">
         <v>159</v>
       </c>
-      <c r="D49" t="s" s="551">
+      <c r="D49" s="257" t="s">
         <v>160</v>
       </c>
-      <c r="E49" t="s" s="552">
+      <c r="E49" s="258" t="s">
         <v>161</v>
       </c>
-      <c r="F49" t="s" s="553">
+      <c r="F49" s="259" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="554">
-        <v>1</v>
-      </c>
-      <c r="H49" s="555">
-        <v>0</v>
-      </c>
-      <c r="I49" s="556">
+      <c r="G49" s="260">
+        <v>1</v>
+      </c>
+      <c r="H49" s="261">
+        <v>0</v>
+      </c>
+      <c r="I49" s="262">
         <v>43154</v>
       </c>
-      <c r="J49" s="557">
+      <c r="J49" s="263">
         <v>43154</v>
       </c>
-      <c r="K49" s="558"/>
-      <c r="L49" s="559">
+      <c r="K49" s="264"/>
+      <c r="L49" s="265">
         <v>43157</v>
       </c>
-      <c r="M49" s="560">
+      <c r="M49" s="266">
         <v>43157</v>
       </c>
-      <c r="N49" s="561">
+      <c r="N49" s="267">
         <v>43161</v>
       </c>
     </row>
@@ -4197,44 +3885,44 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="562">
+      <c r="A54" s="268">
         <v>52</v>
       </c>
-      <c r="B54" s="563">
+      <c r="B54" s="269">
         <v>310488</v>
       </c>
-      <c r="C54" s="564" t="s">
+      <c r="C54" s="270" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="565" t="s">
+      <c r="D54" s="271" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="566" t="s">
+      <c r="E54" s="272" t="s">
         <v>175</v>
       </c>
-      <c r="F54" s="567" t="s">
+      <c r="F54" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="568">
-        <v>1</v>
-      </c>
-      <c r="H54" s="569">
-        <v>0</v>
-      </c>
-      <c r="I54" s="570">
+      <c r="G54" s="274">
+        <v>1</v>
+      </c>
+      <c r="H54" s="275">
+        <v>0</v>
+      </c>
+      <c r="I54" s="276">
         <v>43158</v>
       </c>
-      <c r="J54" s="571">
+      <c r="J54" s="277">
         <v>43160</v>
       </c>
-      <c r="K54" s="572"/>
-      <c r="L54" s="573">
+      <c r="K54" s="278"/>
+      <c r="L54" s="279">
         <v>43160</v>
       </c>
-      <c r="M54" s="574">
+      <c r="M54" s="280">
         <v>43160</v>
       </c>
-      <c r="N54" s="575">
+      <c r="N54" s="281">
         <v>43167</v>
       </c>
     </row>
@@ -4277,44 +3965,44 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="576">
+      <c r="A56" s="282">
         <v>54</v>
       </c>
-      <c r="B56" s="577">
+      <c r="B56" s="283">
         <v>310575</v>
       </c>
-      <c r="C56" t="s" s="578">
+      <c r="C56" s="284" t="s">
         <v>180</v>
       </c>
-      <c r="D56" t="s" s="579">
+      <c r="D56" s="285" t="s">
         <v>181</v>
       </c>
-      <c r="E56" t="s" s="580">
+      <c r="E56" s="286" t="s">
         <v>182</v>
       </c>
-      <c r="F56" t="s" s="581">
+      <c r="F56" s="287" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="582">
-        <v>1</v>
-      </c>
-      <c r="H56" s="583">
-        <v>0</v>
-      </c>
-      <c r="I56" s="584">
+      <c r="G56" s="288">
+        <v>1</v>
+      </c>
+      <c r="H56" s="289">
+        <v>0</v>
+      </c>
+      <c r="I56" s="290">
         <v>43158</v>
       </c>
-      <c r="J56" s="585">
+      <c r="J56" s="291">
         <v>43158</v>
       </c>
-      <c r="K56" s="586"/>
-      <c r="L56" s="587">
+      <c r="K56" s="292"/>
+      <c r="L56" s="293">
         <v>43158</v>
       </c>
-      <c r="M56" s="588">
+      <c r="M56" s="294">
         <v>43158</v>
       </c>
-      <c r="N56" s="589">
+      <c r="N56" s="295">
         <v>43167</v>
       </c>
     </row>
@@ -4465,86 +4153,86 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="590">
+      <c r="A61" s="296">
         <v>59</v>
       </c>
-      <c r="B61" s="591">
+      <c r="B61" s="297">
         <v>311307</v>
       </c>
-      <c r="C61" t="s" s="592">
+      <c r="C61" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="D61" t="s" s="593">
+      <c r="D61" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="E61" t="s" s="594">
+      <c r="E61" s="300" t="s">
         <v>192</v>
       </c>
-      <c r="F61" t="s" s="595">
+      <c r="F61" s="301" t="s">
         <v>193</v>
       </c>
-      <c r="G61" s="596">
+      <c r="G61" s="302">
         <v>5</v>
       </c>
-      <c r="H61" s="597">
-        <v>0</v>
-      </c>
-      <c r="I61" s="598">
+      <c r="H61" s="303">
+        <v>0</v>
+      </c>
+      <c r="I61" s="304">
         <v>43160</v>
       </c>
-      <c r="J61" s="599">
+      <c r="J61" s="305">
         <v>43160</v>
       </c>
-      <c r="K61" s="600"/>
-      <c r="L61" s="601">
+      <c r="K61" s="306"/>
+      <c r="L61" s="307">
         <v>43167</v>
       </c>
-      <c r="M61" s="602">
+      <c r="M61" s="308">
         <v>43167</v>
       </c>
-      <c r="N61" s="603">
+      <c r="N61" s="309">
         <v>43189</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="604">
+      <c r="A62" s="310">
         <v>60</v>
       </c>
-      <c r="B62" s="605">
+      <c r="B62" s="311">
         <v>311389</v>
       </c>
-      <c r="C62" t="s" s="606">
+      <c r="C62" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="D62" t="s" s="607">
+      <c r="D62" s="313" t="s">
         <v>33</v>
       </c>
-      <c r="E62" t="s" s="608">
+      <c r="E62" s="314" t="s">
         <v>195</v>
       </c>
-      <c r="F62" t="s" s="609">
+      <c r="F62" s="315" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="610">
-        <v>1</v>
-      </c>
-      <c r="H62" s="611">
-        <v>0</v>
-      </c>
-      <c r="I62" s="612">
+      <c r="G62" s="316">
+        <v>1</v>
+      </c>
+      <c r="H62" s="317">
+        <v>0</v>
+      </c>
+      <c r="I62" s="318">
         <v>43161</v>
       </c>
-      <c r="J62" s="613">
+      <c r="J62" s="319">
         <v>43161</v>
       </c>
-      <c r="K62" s="614"/>
-      <c r="L62" s="615">
+      <c r="K62" s="320"/>
+      <c r="L62" s="321">
         <v>43161</v>
       </c>
-      <c r="M62" s="616">
+      <c r="M62" s="322">
         <v>43161</v>
       </c>
-      <c r="N62" s="617">
+      <c r="N62" s="323">
         <v>43161</v>
       </c>
     </row>
@@ -4730,44 +4418,44 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="618">
+      <c r="A68" s="324">
         <v>66</v>
       </c>
-      <c r="B68" s="619">
+      <c r="B68" s="325">
         <v>311668</v>
       </c>
-      <c r="C68" s="620" t="s">
+      <c r="C68" s="326" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="621" t="s">
+      <c r="D68" s="327" t="s">
         <v>209</v>
       </c>
-      <c r="E68" s="622" t="s">
+      <c r="E68" s="328" t="s">
         <v>210</v>
       </c>
-      <c r="F68" s="623" t="s">
+      <c r="F68" s="329" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="624">
-        <v>1</v>
-      </c>
-      <c r="H68" s="625">
-        <v>0</v>
-      </c>
-      <c r="I68" s="626">
+      <c r="G68" s="330">
+        <v>1</v>
+      </c>
+      <c r="H68" s="331">
+        <v>0</v>
+      </c>
+      <c r="I68" s="332">
         <v>43164</v>
       </c>
-      <c r="J68" s="627">
+      <c r="J68" s="333">
         <v>43164</v>
       </c>
-      <c r="K68" s="628"/>
-      <c r="L68" s="629">
+      <c r="K68" s="334"/>
+      <c r="L68" s="335">
         <v>43167</v>
       </c>
-      <c r="M68" s="630">
+      <c r="M68" s="336">
         <v>43167</v>
       </c>
-      <c r="N68" s="631">
+      <c r="N68" s="337">
         <v>43167</v>
       </c>
     </row>
@@ -4994,40 +4682,40 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="632">
+      <c r="A75" s="338">
         <v>73</v>
       </c>
-      <c r="B75" s="633">
+      <c r="B75" s="339">
         <v>312007</v>
       </c>
-      <c r="C75" t="s" s="634">
+      <c r="C75" s="340" t="s">
         <v>225</v>
       </c>
-      <c r="D75" t="s" s="635">
+      <c r="D75" s="341" t="s">
         <v>226</v>
       </c>
-      <c r="E75" t="s" s="636">
+      <c r="E75" s="342" t="s">
         <v>227</v>
       </c>
-      <c r="F75" t="s" s="637">
+      <c r="F75" s="343" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="638">
+      <c r="G75" s="344">
         <v>2</v>
       </c>
-      <c r="H75" s="639">
-        <v>0</v>
-      </c>
-      <c r="I75" s="640">
+      <c r="H75" s="345">
+        <v>0</v>
+      </c>
+      <c r="I75" s="346">
         <v>43165</v>
       </c>
-      <c r="J75" s="641"/>
-      <c r="K75" s="642"/>
-      <c r="L75" s="643"/>
-      <c r="M75" s="644">
+      <c r="J75" s="347"/>
+      <c r="K75" s="348"/>
+      <c r="L75" s="349"/>
+      <c r="M75" s="350">
         <v>43165</v>
       </c>
-      <c r="N75" s="645">
+      <c r="N75" s="351">
         <v>43165</v>
       </c>
     </row>
@@ -5070,78 +4758,78 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="646">
+      <c r="A77" s="352">
         <v>75</v>
       </c>
-      <c r="B77" s="647">
+      <c r="B77" s="353">
         <v>312185</v>
       </c>
-      <c r="C77" t="s" s="648">
+      <c r="C77" s="354" t="s">
         <v>232</v>
       </c>
-      <c r="D77" t="s" s="649">
+      <c r="D77" s="355" t="s">
         <v>233</v>
       </c>
-      <c r="E77" t="s" s="650">
+      <c r="E77" s="356" t="s">
         <v>234</v>
       </c>
-      <c r="F77" t="s" s="651">
+      <c r="F77" s="357" t="s">
         <v>235</v>
       </c>
-      <c r="G77" s="652">
+      <c r="G77" s="358">
         <v>4</v>
       </c>
-      <c r="H77" s="653">
-        <v>0</v>
-      </c>
-      <c r="I77" s="654">
+      <c r="H77" s="359">
+        <v>0</v>
+      </c>
+      <c r="I77" s="360">
         <v>43165</v>
       </c>
-      <c r="J77" s="655"/>
-      <c r="K77" s="656"/>
-      <c r="L77" s="657"/>
-      <c r="M77" s="658">
+      <c r="J77" s="361"/>
+      <c r="K77" s="362"/>
+      <c r="L77" s="363"/>
+      <c r="M77" s="364">
         <v>43165</v>
       </c>
-      <c r="N77" s="659">
+      <c r="N77" s="365">
         <v>43166</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="660">
+      <c r="A78" s="366">
         <v>76</v>
       </c>
-      <c r="B78" s="661">
+      <c r="B78" s="367">
         <v>312186</v>
       </c>
-      <c r="C78" t="s" s="662">
+      <c r="C78" s="368" t="s">
         <v>236</v>
       </c>
-      <c r="D78" t="s" s="663">
+      <c r="D78" s="369" t="s">
         <v>233</v>
       </c>
-      <c r="E78" t="s" s="664">
+      <c r="E78" s="370" t="s">
         <v>234</v>
       </c>
-      <c r="F78" t="s" s="665">
+      <c r="F78" s="371" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="666">
+      <c r="G78" s="372">
         <v>4</v>
       </c>
-      <c r="H78" s="667">
-        <v>0</v>
-      </c>
-      <c r="I78" s="668">
+      <c r="H78" s="373">
+        <v>0</v>
+      </c>
+      <c r="I78" s="374">
         <v>43165</v>
       </c>
-      <c r="J78" s="669"/>
-      <c r="K78" s="670"/>
-      <c r="L78" s="671"/>
-      <c r="M78" s="672">
+      <c r="J78" s="375"/>
+      <c r="K78" s="376"/>
+      <c r="L78" s="377"/>
+      <c r="M78" s="378">
         <v>43165</v>
       </c>
-      <c r="N78" s="673">
+      <c r="N78" s="379">
         <v>43166</v>
       </c>
     </row>
@@ -5365,44 +5053,44 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="674">
+      <c r="A85" s="380">
         <v>83</v>
       </c>
-      <c r="B85" s="675">
+      <c r="B85" s="381">
         <v>313376</v>
       </c>
-      <c r="C85" s="676" t="s">
+      <c r="C85" s="382" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="677" t="s">
+      <c r="D85" s="383" t="s">
         <v>255</v>
       </c>
-      <c r="E85" s="678" t="s">
+      <c r="E85" s="384" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="679" t="s">
+      <c r="F85" s="385" t="s">
         <v>176</v>
       </c>
-      <c r="G85" s="680">
-        <v>1</v>
-      </c>
-      <c r="H85" s="681">
-        <v>0</v>
-      </c>
-      <c r="I85" s="682">
+      <c r="G85" s="386">
+        <v>1</v>
+      </c>
+      <c r="H85" s="387">
+        <v>0</v>
+      </c>
+      <c r="I85" s="388">
         <v>43171</v>
       </c>
-      <c r="J85" s="683">
+      <c r="J85" s="389">
         <v>43171</v>
       </c>
-      <c r="K85" s="684"/>
-      <c r="L85" s="685">
+      <c r="K85" s="390"/>
+      <c r="L85" s="391">
         <v>43171</v>
       </c>
-      <c r="M85" s="686">
+      <c r="M85" s="392">
         <v>43171</v>
       </c>
-      <c r="N85" s="687">
+      <c r="N85" s="393">
         <v>43172</v>
       </c>
     </row>
@@ -5559,44 +5247,44 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="688">
+      <c r="A90" s="394">
         <v>88</v>
       </c>
-      <c r="B90" s="689">
+      <c r="B90" s="395">
         <v>313688</v>
       </c>
-      <c r="C90" s="690" t="s">
+      <c r="C90" s="396" t="s">
         <v>262</v>
       </c>
-      <c r="D90" s="691" t="s">
+      <c r="D90" s="397" t="s">
         <v>263</v>
       </c>
-      <c r="E90" s="692" t="s">
+      <c r="E90" s="398" t="s">
         <v>264</v>
       </c>
-      <c r="F90" s="693" t="s">
+      <c r="F90" s="399" t="s">
         <v>265</v>
       </c>
-      <c r="G90" s="694">
+      <c r="G90" s="400">
         <v>6</v>
       </c>
-      <c r="H90" s="695">
-        <v>0</v>
-      </c>
-      <c r="I90" s="696">
+      <c r="H90" s="401">
+        <v>0</v>
+      </c>
+      <c r="I90" s="402">
         <v>43172</v>
       </c>
-      <c r="J90" s="697">
+      <c r="J90" s="403">
         <v>43172</v>
       </c>
-      <c r="K90" s="698"/>
-      <c r="L90" s="699">
+      <c r="K90" s="404"/>
+      <c r="L90" s="405">
         <v>43172</v>
       </c>
-      <c r="M90" s="700">
+      <c r="M90" s="406">
         <v>43174</v>
       </c>
-      <c r="N90" s="701">
+      <c r="N90" s="407">
         <v>43179</v>
       </c>
     </row>
@@ -6077,86 +5765,86 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="702">
+      <c r="A104" s="408">
         <v>102</v>
       </c>
-      <c r="B104" s="703">
+      <c r="B104" s="409">
         <v>315389</v>
       </c>
-      <c r="C104" s="704" t="s">
+      <c r="C104" s="410" t="s">
         <v>293</v>
       </c>
-      <c r="D104" s="705" t="s">
+      <c r="D104" s="411" t="s">
         <v>294</v>
       </c>
-      <c r="E104" s="706" t="s">
+      <c r="E104" s="412" t="s">
         <v>295</v>
       </c>
-      <c r="F104" s="707" t="s">
+      <c r="F104" s="413" t="s">
         <v>296</v>
       </c>
-      <c r="G104" s="708">
-        <v>1</v>
-      </c>
-      <c r="H104" s="709">
-        <v>0</v>
-      </c>
-      <c r="I104" s="710">
+      <c r="G104" s="414">
+        <v>1</v>
+      </c>
+      <c r="H104" s="415">
+        <v>0</v>
+      </c>
+      <c r="I104" s="416">
         <v>43178</v>
       </c>
-      <c r="J104" s="711">
+      <c r="J104" s="417">
         <v>43178</v>
       </c>
-      <c r="K104" s="712"/>
-      <c r="L104" s="713">
+      <c r="K104" s="418"/>
+      <c r="L104" s="419">
         <v>43179</v>
       </c>
-      <c r="M104" s="714">
+      <c r="M104" s="420">
         <v>43179</v>
       </c>
-      <c r="N104" s="715">
+      <c r="N104" s="421">
         <v>43181</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="716">
+      <c r="A105" s="422">
         <v>103</v>
       </c>
-      <c r="B105" s="717">
+      <c r="B105" s="423">
         <v>315428</v>
       </c>
-      <c r="C105" s="718" t="s">
+      <c r="C105" s="424" t="s">
         <v>297</v>
       </c>
-      <c r="D105" s="719" t="s">
+      <c r="D105" s="425" t="s">
         <v>255</v>
       </c>
-      <c r="E105" s="720" t="s">
+      <c r="E105" s="426" t="s">
         <v>84</v>
       </c>
-      <c r="F105" s="721" t="s">
+      <c r="F105" s="427" t="s">
         <v>265</v>
       </c>
-      <c r="G105" s="722">
-        <v>1</v>
-      </c>
-      <c r="H105" s="723">
-        <v>0</v>
-      </c>
-      <c r="I105" s="724">
+      <c r="G105" s="428">
+        <v>1</v>
+      </c>
+      <c r="H105" s="429">
+        <v>0</v>
+      </c>
+      <c r="I105" s="430">
         <v>43178</v>
       </c>
-      <c r="J105" s="725">
+      <c r="J105" s="431">
         <v>43178</v>
       </c>
-      <c r="K105" s="726"/>
-      <c r="L105" s="727">
+      <c r="K105" s="432"/>
+      <c r="L105" s="433">
         <v>43179</v>
       </c>
-      <c r="M105" s="728">
+      <c r="M105" s="434">
         <v>43179</v>
       </c>
-      <c r="N105" s="729">
+      <c r="N105" s="435">
         <v>43181</v>
       </c>
     </row>
@@ -6269,124 +5957,124 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="730">
+      <c r="A109" s="436">
         <v>107</v>
       </c>
-      <c r="B109" s="731">
+      <c r="B109" s="437">
         <v>315871</v>
       </c>
-      <c r="C109" t="s" s="732">
+      <c r="C109" s="438" t="s">
         <v>305</v>
       </c>
-      <c r="D109" t="s" s="733">
+      <c r="D109" s="439" t="s">
         <v>306</v>
       </c>
-      <c r="E109" t="s" s="734">
+      <c r="E109" s="440" t="s">
         <v>307</v>
       </c>
-      <c r="F109" t="s" s="735">
+      <c r="F109" s="441" t="s">
         <v>308</v>
       </c>
-      <c r="G109" s="736">
-        <v>1</v>
-      </c>
-      <c r="H109" s="737">
-        <v>0</v>
-      </c>
-      <c r="I109" s="738">
+      <c r="G109" s="442">
+        <v>1</v>
+      </c>
+      <c r="H109" s="443">
+        <v>0</v>
+      </c>
+      <c r="I109" s="444">
         <v>43180</v>
       </c>
-      <c r="J109" s="739">
+      <c r="J109" s="445">
         <v>43180</v>
       </c>
-      <c r="K109" s="740"/>
-      <c r="L109" s="741">
+      <c r="K109" s="446"/>
+      <c r="L109" s="447">
         <v>43180</v>
       </c>
-      <c r="M109" s="742">
+      <c r="M109" s="448">
         <v>43182</v>
       </c>
-      <c r="N109" s="743">
+      <c r="N109" s="449">
         <v>43185</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="744">
+      <c r="A110" s="450">
         <v>108</v>
       </c>
-      <c r="B110" s="745">
+      <c r="B110" s="451">
         <v>315992</v>
       </c>
-      <c r="C110" t="s" s="746">
+      <c r="C110" s="452" t="s">
         <v>309</v>
       </c>
-      <c r="D110" t="s" s="747">
+      <c r="D110" s="453" t="s">
         <v>294</v>
       </c>
-      <c r="E110" t="s" s="748">
+      <c r="E110" s="454" t="s">
         <v>310</v>
       </c>
-      <c r="F110" t="s" s="749">
+      <c r="F110" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="G110" s="750">
-        <v>1</v>
-      </c>
-      <c r="H110" s="751">
-        <v>0</v>
-      </c>
-      <c r="I110" s="752">
+      <c r="G110" s="456">
+        <v>1</v>
+      </c>
+      <c r="H110" s="457">
+        <v>0</v>
+      </c>
+      <c r="I110" s="458">
         <v>43180</v>
       </c>
-      <c r="J110" s="753">
+      <c r="J110" s="459">
         <v>43180</v>
       </c>
-      <c r="K110" s="754"/>
-      <c r="L110" s="755">
+      <c r="K110" s="460"/>
+      <c r="L110" s="461">
         <v>43180</v>
       </c>
-      <c r="M110" s="756">
+      <c r="M110" s="462">
         <v>43180</v>
       </c>
-      <c r="N110" s="757">
+      <c r="N110" s="463">
         <v>43187</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="758">
+      <c r="A111" s="464">
         <v>109</v>
       </c>
-      <c r="B111" s="759">
+      <c r="B111" s="465">
         <v>316014</v>
       </c>
-      <c r="C111" t="s" s="760">
+      <c r="C111" s="466" t="s">
         <v>311</v>
       </c>
-      <c r="D111" t="s" s="761">
+      <c r="D111" s="467" t="s">
         <v>245</v>
       </c>
-      <c r="E111" t="s" s="762">
+      <c r="E111" s="468" t="s">
         <v>312</v>
       </c>
-      <c r="F111" t="s" s="763">
+      <c r="F111" s="469" t="s">
         <v>313</v>
       </c>
-      <c r="G111" s="764">
+      <c r="G111" s="470">
         <v>3</v>
       </c>
-      <c r="H111" s="765">
-        <v>0</v>
-      </c>
-      <c r="I111" s="766">
+      <c r="H111" s="471">
+        <v>0</v>
+      </c>
+      <c r="I111" s="472">
         <v>43180</v>
       </c>
-      <c r="J111" s="767"/>
-      <c r="K111" s="768"/>
-      <c r="L111" s="769"/>
-      <c r="M111" s="770">
+      <c r="J111" s="473"/>
+      <c r="K111" s="474"/>
+      <c r="L111" s="475"/>
+      <c r="M111" s="476">
         <v>43180</v>
       </c>
-      <c r="N111" s="771">
+      <c r="N111" s="477">
         <v>43181</v>
       </c>
     </row>
@@ -6654,30 +6342,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>